--- a/DATA_goal/Junction_Flooding_19.xlsx
+++ b/DATA_goal/Junction_Flooding_19.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>43740.98680555556</v>
+        <v>43740.98679398148</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>14</v>
@@ -1645,7 +1645,7 @@
         <v>0.47</v>
       </c>
       <c r="T11" s="4" t="n">
-        <v>158.57</v>
+        <v>158.56</v>
       </c>
       <c r="U11" s="4" t="n">
         <v>30.39</v>
@@ -1688,110 +1688,6 @@
       </c>
       <c r="AH11" s="4" t="n">
         <v>12.52</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>43740.99373842592</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>29.02</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>14.95</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>152.85</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>29.34</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>37.82</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>12.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_19.xlsx
+++ b/DATA_goal/Junction_Flooding_19.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -470,7 +470,7 @@
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>43740.92430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>1.03</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U2" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>7.95</v>
-      </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>0.66</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>43740.93125</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T3" s="4" t="n">
         <v>6.09</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>60.92</v>
-      </c>
       <c r="U3" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.61</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>6.05</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>43740.93819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.55</v>
+        <v>0.45</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.33</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>55.36</v>
+        <v>5.54</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.15</v>
+        <v>1.42</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>43740.94513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.95</v>
+        <v>1.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
         <v>6.69</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="R5" s="4" t="n">
+      <c r="U5" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>66.87</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.67</v>
-      </c>
       <c r="AB5" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.6</v>
+        <v>1.66</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>43740.95208333333</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>15.15</v>
+        <v>1.52</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>24.37</v>
+        <v>2.44</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>89.8</v>
+        <v>8.98</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>21.58</v>
+        <v>2.16</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>7.25</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>43740.95902777778</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>30.89</v>
+        <v>3.09</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>26.31</v>
+        <v>2.63</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>42.24</v>
+        <v>4.22</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>17.26</v>
+        <v>1.73</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>11.93</v>
+        <v>1.19</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>15.92</v>
+        <v>1.59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>164.25</v>
+        <v>16.42</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>31.28</v>
+        <v>3.13</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>21.49</v>
+        <v>2.15</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>20.5</v>
+        <v>2.05</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>37.86</v>
+        <v>3.79</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>43740.96597222222</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>27.83</v>
+        <v>2.78</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>23.66</v>
+        <v>2.37</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>40.44</v>
+        <v>4.04</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>147.09</v>
+        <v>14.71</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>28.24</v>
+        <v>2.82</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>19.39</v>
+        <v>1.94</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>19.33</v>
+        <v>1.93</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>36.43</v>
+        <v>3.64</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>43740.97291666667</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>28.92</v>
+        <v>2.89</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>24.48</v>
+        <v>2.45</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>41.61</v>
+        <v>4.16</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.15</v>
+        <v>1.61</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>14.91</v>
+        <v>1.49</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>152.82</v>
+        <v>15.28</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>29.29</v>
+        <v>2.93</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>37.46</v>
+        <v>3.75</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>43740.97986111111</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.75</v>
+        <v>1.17</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>33.14</v>
+        <v>3.31</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>27.9</v>
+        <v>2.79</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>47.06</v>
+        <v>4.71</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.49</v>
+        <v>1.85</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>175.72</v>
+        <v>17.57</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>33.5</v>
+        <v>3.35</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>22.9</v>
+        <v>2.29</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>22.67</v>
+        <v>2.27</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.65</v>
+        <v>0.87</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>42.43</v>
+        <v>4.24</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_19.xlsx
+++ b/DATA_goal/Junction_Flooding_19.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -464,7 +464,7 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>24.62</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.44</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.99</v>
+        <v>129.95</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.49</v>
+        <v>24.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.38</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.29</v>
+        <v>22.91</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.72</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>11.86</v>
+        <v>118.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.31</v>
+        <v>23.15</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.08</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.87</v>
+        <v>28.69</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="E4" s="4" t="n">
-        <v>2.5</v>
+        <v>25.05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.88</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.5</v>
+        <v>34.97</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="O4" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13</v>
+        <v>130.01</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.52</v>
+        <v>25.23</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.68</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.14</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.19</v>
+        <v>31.86</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.1</v>
+        <v>20.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.68</v>
+        <v>36.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.57</v>
+        <v>135.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.63</v>
+        <v>26.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.35</v>
+        <v>33.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_19.xlsx
+++ b/DATA_goal/Junction_Flooding_19.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>7.644</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>3.425</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>24.615</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>18.068</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>8.586</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>25.443</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>5.416</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>7.792</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>10.589</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>2.697</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>12.231</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>8.247999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>129.948</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>24.892</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.193</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.063</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>6.887</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>7.883</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>10.309</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.695</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>22.828</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>4.294</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.38</v>
+        <v>10.375</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.48</v>
+        <v>7.482</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.557</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.91</v>
+        <v>22.909</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.72</v>
+        <v>17.721</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>8.036</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.22</v>
+        <v>31.225</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.8</v>
+        <v>12.798</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.39</v>
+        <v>5.391</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.71</v>
+        <v>7.708</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.15</v>
+        <v>9.148</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.887</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.51</v>
+        <v>2.507</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.52</v>
+        <v>11.525</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.38</v>
+        <v>7.384</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.3</v>
+        <v>1.298</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.57</v>
+        <v>118.568</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.15</v>
+        <v>23.148</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.08</v>
+        <v>15.076</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.87</v>
+        <v>7.873</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.578</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.71</v>
+        <v>15.709</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.19</v>
+        <v>6.189</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.22</v>
+        <v>7.218</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>9.618</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.69</v>
+        <v>28.695</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.08</v>
+        <v>4.084</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>11.38</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.375999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.136</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>25.05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.88</v>
+        <v>19.878</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.875999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.97</v>
+        <v>34.965</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.04</v>
+        <v>6.041</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.76</v>
+        <v>8.759</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.032</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.77</v>
+        <v>10.773</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.7</v>
+        <v>12.697</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.86</v>
+        <v>7.858</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.901</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.649</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>130.01</v>
+        <v>130.009</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.23</v>
+        <v>25.231</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.68</v>
+        <v>16.678</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>8.74</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.51</v>
+        <v>1.512</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.14</v>
+        <v>17.137</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.65</v>
+        <v>6.648</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.78</v>
+        <v>7.784</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.54</v>
+        <v>10.543</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.86</v>
+        <v>31.864</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.56</v>
+        <v>4.558</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.6604050926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>42.34</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.63</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>38.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_19.xlsx
+++ b/DATA_goal/Junction_Flooding_19.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,91 +967,91 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.89</v>
+        <v>11.888</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.82</v>
+        <v>8.817</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.946</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>26.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.95</v>
+        <v>20.955</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.8</v>
+        <v>36.801</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.54</v>
+        <v>14.543</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.37</v>
+        <v>6.366</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.292999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.47</v>
+        <v>10.467</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.2</v>
+        <v>11.202</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.92</v>
+        <v>2.916</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.29</v>
+        <v>13.289</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.08</v>
+        <v>8.084</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.578</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.73</v>
+        <v>135.735</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.29</v>
+        <v>26.289</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.5</v>
+        <v>17.496</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.17</v>
+        <v>9.173999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.48</v>
+        <v>1.483</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.91</v>
+        <v>17.914</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.87</v>
+        <v>6.872</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>8.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11</v>
+        <v>11.001</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
@@ -1060,10 +1060,114 @@
         <v>33.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.8</v>
+        <v>4.799</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.85</v>
+        <v>10.847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44076.6604050926</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.63</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_19.xlsx
+++ b/DATA_goal/Junction_Flooding_19.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,91 +967,91 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.888</v>
+        <v>11.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.817</v>
+        <v>8.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.946</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>26.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.955</v>
+        <v>20.95</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.801</v>
+        <v>36.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.543</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.366</v>
+        <v>6.37</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.292999999999999</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.467</v>
+        <v>10.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.202</v>
+        <v>11.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.916</v>
+        <v>2.92</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.289</v>
+        <v>13.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.084</v>
+        <v>8.08</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.708</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.578</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.735</v>
+        <v>135.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.289</v>
+        <v>26.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.676</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.496</v>
+        <v>17.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.173999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.483</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.914</v>
+        <v>17.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.663</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.872</v>
+        <v>6.87</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>8.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.001</v>
+        <v>11</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
@@ -1060,114 +1060,10 @@
         <v>33.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.799</v>
+        <v>4.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.847</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.6604050926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>42.34</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.63</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>38.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>
